--- a/data/exploratory_loadings_chatgpt.xlsx
+++ b/data/exploratory_loadings_chatgpt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/076a438a88ad6cf7/trabalho/repositorios/mfv_llm/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\alunos-pg\joseluizn\mfv_llm\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_1D698130465C380F62355476585DCE3A87470FA5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DEB2C244-5DBE-894D-B0BE-E0722E9B2394}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0831CEAF-DF19-4BD1-B932-ABF936924E5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16800" yWindow="500" windowWidth="16800" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,17 +346,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color theme="0" tint="-0.34998626667073579"/>
@@ -676,13 +666,13 @@
       <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="80.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="80.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -714,7 +704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>102</v>
       </c>
@@ -746,7 +736,7 @@
         <v>-2.469159655699411E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>103</v>
       </c>
@@ -778,7 +768,7 @@
         <v>0.23362181533931359</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>104</v>
       </c>
@@ -810,7 +800,7 @@
         <v>9.4238965276267711E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>105</v>
       </c>
@@ -842,7 +832,7 @@
         <v>0.3315255905898068</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>108</v>
       </c>
@@ -874,7 +864,7 @@
         <v>0.16611696057558989</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>109</v>
       </c>
@@ -906,7 +896,7 @@
         <v>-2.985647438890883E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>110</v>
       </c>
@@ -938,7 +928,7 @@
         <v>0.1783767664219732</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>111</v>
       </c>
@@ -970,7 +960,7 @@
         <v>3.6863603049586538E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>112</v>
       </c>
@@ -1002,7 +992,7 @@
         <v>0.1139841124116398</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>113</v>
       </c>
@@ -1034,7 +1024,7 @@
         <v>8.5909783030527515E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>114</v>
       </c>
@@ -1066,7 +1056,7 @@
         <v>-3.2606988526259581E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>201</v>
       </c>
@@ -1098,7 +1088,7 @@
         <v>5.8439671591156851E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>202</v>
       </c>
@@ -1130,7 +1120,7 @@
         <v>5.1443654223245518E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>203</v>
       </c>
@@ -1162,7 +1152,7 @@
         <v>3.0310099057324579E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>204</v>
       </c>
@@ -1194,7 +1184,7 @@
         <v>-0.1426585249287555</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>205</v>
       </c>
@@ -1226,7 +1216,7 @@
         <v>1.3117668384381481E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>206</v>
       </c>
@@ -1258,7 +1248,7 @@
         <v>-3.3380620473379932E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>207</v>
       </c>
@@ -1290,7 +1280,7 @@
         <v>2.271401757980927E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>208</v>
       </c>
@@ -1322,7 +1312,7 @@
         <v>-9.8083887120063665E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>303</v>
       </c>
@@ -1354,7 +1344,7 @@
         <v>5.4992783911500309E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>402</v>
       </c>
@@ -1386,7 +1376,7 @@
         <v>0.12900200439926021</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>403</v>
       </c>
@@ -1418,7 +1408,7 @@
         <v>-5.7163936441292952E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>404</v>
       </c>
@@ -1450,7 +1440,7 @@
         <v>0.21408782744597379</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>405</v>
       </c>
@@ -1482,7 +1472,7 @@
         <v>0.26312908108856148</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>406</v>
       </c>
@@ -1514,7 +1504,7 @@
         <v>0.36910364111928212</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>408</v>
       </c>
@@ -1546,7 +1536,7 @@
         <v>0.23092326701673949</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>409</v>
       </c>
@@ -1578,7 +1568,7 @@
         <v>0.44745193670159999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>410</v>
       </c>
@@ -1610,7 +1600,7 @@
         <v>0.10986229000653031</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>411</v>
       </c>
@@ -1642,7 +1632,7 @@
         <v>0.40332945077856469</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>501</v>
       </c>
@@ -1674,7 +1664,7 @@
         <v>-2.4054540692012169E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>502</v>
       </c>
@@ -1706,7 +1696,7 @@
         <v>0.17951624842393679</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>503</v>
       </c>
@@ -1738,7 +1728,7 @@
         <v>-1.333617985379355E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>504</v>
       </c>
@@ -1770,7 +1760,7 @@
         <v>0.29504651218844041</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>507</v>
       </c>
@@ -1802,7 +1792,7 @@
         <v>-8.5034105119861259E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>509</v>
       </c>
@@ -1834,7 +1824,7 @@
         <v>-0.21873812955079491</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>510</v>
       </c>
@@ -1866,7 +1856,7 @@
         <v>-9.8868063975151368E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>601</v>
       </c>
@@ -1898,7 +1888,7 @@
         <v>-0.13469938372392881</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>602</v>
       </c>
@@ -1930,7 +1920,7 @@
         <v>5.6722067279785723E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>603</v>
       </c>
@@ -1962,7 +1952,7 @@
         <v>0.58068478837301452</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>604</v>
       </c>
@@ -1994,7 +1984,7 @@
         <v>3.31577715715952E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>605</v>
       </c>
@@ -2026,7 +2016,7 @@
         <v>-6.8710775398300727E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>608</v>
       </c>
@@ -2058,7 +2048,7 @@
         <v>-3.6388556704997313E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>610</v>
       </c>
@@ -2090,7 +2080,7 @@
         <v>-0.22915573363089081</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>611</v>
       </c>
@@ -2122,7 +2112,7 @@
         <v>0.1192870169651267</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>612</v>
       </c>
@@ -2154,7 +2144,7 @@
         <v>-0.19284483099413841</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>614</v>
       </c>
@@ -2186,7 +2176,7 @@
         <v>-7.6609643524778046E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>701</v>
       </c>
@@ -2218,7 +2208,7 @@
         <v>1.4111768876635429E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>702</v>
       </c>
@@ -2250,7 +2240,7 @@
         <v>-7.9664405306195715E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>703</v>
       </c>
@@ -2282,7 +2272,7 @@
         <v>-0.10660068417782111</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>704</v>
       </c>
@@ -2314,7 +2304,7 @@
         <v>-2.7755569027882711E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>705</v>
       </c>
@@ -2346,7 +2336,7 @@
         <v>0.69264058713234189</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>706</v>
       </c>
@@ -2378,7 +2368,7 @@
         <v>7.4107315630632761E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>707</v>
       </c>
@@ -2410,7 +2400,7 @@
         <v>0.2591526354660087</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>709</v>
       </c>
@@ -2442,7 +2432,7 @@
         <v>1.6815737960867909E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>710</v>
       </c>
@@ -2474,7 +2464,7 @@
         <v>0.35581105755499309</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>711</v>
       </c>
@@ -2506,7 +2496,7 @@
         <v>6.3248065243959942E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>712</v>
       </c>
@@ -2538,7 +2528,7 @@
         <v>0.1653790050779736</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>713</v>
       </c>
@@ -2570,7 +2560,7 @@
         <v>-0.1015699262343088</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>714</v>
       </c>
@@ -2602,7 +2592,7 @@
         <v>3.2171970867563383E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>715</v>
       </c>
@@ -2634,7 +2624,7 @@
         <v>8.5849530111568075E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>716</v>
       </c>
@@ -2666,7 +2656,7 @@
         <v>-0.10180620817851289</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>801</v>
       </c>
@@ -2698,7 +2688,7 @@
         <v>0.1130346264241901</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>802</v>
       </c>
@@ -2730,7 +2720,7 @@
         <v>0.1441695145756241</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>803</v>
       </c>
@@ -2762,7 +2752,7 @@
         <v>2.3493565342476749E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>804</v>
       </c>
@@ -2794,7 +2784,7 @@
         <v>4.6043175770232739E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>805</v>
       </c>
@@ -2826,7 +2816,7 @@
         <v>3.1638040117066828E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>808</v>
       </c>
@@ -2858,7 +2848,7 @@
         <v>-8.1588778107532484E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>810</v>
       </c>
@@ -2892,10 +2882,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D1:J1048576">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="greaterThan">
       <formula>0.6</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0.4</formula>
     </cfRule>
   </conditionalFormatting>
